--- a/WebSite/workschool/tools/Antibiogram/notes.xlsx
+++ b/WebSite/workschool/tools/Antibiogram/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="27792" windowHeight="13356" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="182">
   <si>
     <t>Organism</t>
   </si>
@@ -106,6 +111,462 @@
   </si>
   <si>
     <t>Meningitis only 67%???</t>
+  </si>
+  <si>
+    <t>Streptococcus Group B (agalactiae)</t>
+  </si>
+  <si>
+    <t>Streptococcus viridans Group</t>
+  </si>
+  <si>
+    <t>Cefuroxime</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>Doxycycline</t>
+  </si>
+  <si>
+    <t>Moxifloxacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '77</t>
+  </si>
+  <si>
+    <t>Candida albicans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '47</t>
+  </si>
+  <si>
+    <t>Candida glabrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '89</t>
+  </si>
+  <si>
+    <t>Candida parapsilosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '4</t>
+  </si>
+  <si>
+    <t>Candida krusei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '50</t>
+  </si>
+  <si>
+    <t>Candida (other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '92</t>
+  </si>
+  <si>
+    <t>'+</t>
+  </si>
+  <si>
+    <t>Amphotericin B</t>
+  </si>
+  <si>
+    <t>Caspofungin</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Voriconazole</t>
+  </si>
+  <si>
+    <t>Candida tropicalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '33</t>
+  </si>
+  <si>
+    <t>Achromobacter xylosoxidans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '83</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '7</t>
+  </si>
+  <si>
+    <t>Cefepime</t>
+  </si>
+  <si>
+    <t>Aztreonam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '87</t>
+  </si>
+  <si>
+    <t>Imipenem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '73</t>
+  </si>
+  <si>
+    <t>Tobramycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '3</t>
+  </si>
+  <si>
+    <t>Amikacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '80</t>
+  </si>
+  <si>
+    <t>Burkholderia cepacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '71</t>
+  </si>
+  <si>
+    <t>Minocycline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '86</t>
+  </si>
+  <si>
+    <t>Ceftazidime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '23</t>
+  </si>
+  <si>
+    <t>Acinetobacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '78</t>
+  </si>
+  <si>
+    <t>Ampicillin-Sulbactam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '67</t>
+  </si>
+  <si>
+    <t>Citrobacter freundii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '79</t>
+  </si>
+  <si>
+    <t>Citrobacter koseri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '95</t>
+  </si>
+  <si>
+    <t>Enterobacter aerogenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '165</t>
+  </si>
+  <si>
+    <t>Enterobacter cloacae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '2497</t>
+  </si>
+  <si>
+    <t>Escheria coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '64</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '102</t>
+  </si>
+  <si>
+    <t>Klebsiella oxytoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '459</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '36</t>
+  </si>
+  <si>
+    <t>Morganella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '233</t>
+  </si>
+  <si>
+    <t>Proteus mirabilis</t>
+  </si>
+  <si>
+    <t>Proteus vulgaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '372</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa CF mucoid</t>
+  </si>
+  <si>
+    <t>Ticarcillin</t>
+  </si>
+  <si>
+    <t>Piperacillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '343</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa CF non-mucoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '322</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '88</t>
+  </si>
+  <si>
+    <t>Serratia marcescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '103</t>
+  </si>
+  <si>
+    <t>Stenotrophomonas maltophilia</t>
+  </si>
+  <si>
+    <t>Ticarcillin-Clavulanate</t>
+  </si>
+  <si>
+    <t>Salmonella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '60</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Ertapenem</t>
+  </si>
+  <si>
+    <t>Ceftazadime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '1197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '299</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus (MRSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '898</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus (MSSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '28</t>
+  </si>
+  <si>
+    <t>Bacteroides fragilis</t>
+  </si>
+  <si>
+    <t>Metronidazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '31</t>
+  </si>
+  <si>
+    <t>Bacteroides (not fragilis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '32</t>
+  </si>
+  <si>
+    <t>Gram Negative Rods (anaerobes, other)</t>
+  </si>
+  <si>
+    <t>Gram Positive Rods (anaerobes)</t>
+  </si>
+  <si>
+    <t>Clostridium (not difficile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '21</t>
+  </si>
+  <si>
+    <t>Peptostreptococcus</t>
+  </si>
+  <si>
+    <t>Clostridium perfringens</t>
+  </si>
+  <si>
+    <t>Clostridium (not perfringens)</t>
+  </si>
+  <si>
+    <t>Gram Positive Cocci (anaerobes)</t>
+  </si>
+  <si>
+    <t>Campylobacter</t>
   </si>
 </sst>
 </file>
@@ -141,8 +602,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,6 +620,1793 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="JonC101" refreshedDate="42524.80085" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="250">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:C1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Bug" numFmtId="0">
+      <sharedItems containsBlank="1" count="20">
+        <s v="Achromobacter xylosoxidans"/>
+        <s v="Burkholderia cepacia"/>
+        <s v="Acinetobacter"/>
+        <s v="Citrobacter freundii"/>
+        <s v="Citrobacter koseri"/>
+        <s v="Enterobacter aerogenes"/>
+        <s v="Enterobacter cloacae"/>
+        <s v="Escheria coli"/>
+        <s v="Klebsiella oxytoca"/>
+        <s v="Klebsiella pneumoniae"/>
+        <s v="Morganella"/>
+        <s v="Proteus mirabilis"/>
+        <s v="Proteus vulgaris"/>
+        <s v="Pseudomonas aeruginosa CF mucoid"/>
+        <s v="Pseudomonas aeruginosa CF non-mucoid"/>
+        <s v="Pseudomonas aeruginosa"/>
+        <s v="Serratia marcescens"/>
+        <s v="Stenotrophomonas maltophilia"/>
+        <s v="Salmonella"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Drug" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="JonC101" refreshedDate="42524.809028124997" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="I1:J1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Bug" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Staphylococcus aureus (all)"/>
+        <s v="Staphylococcus aureus (MRSA)"/>
+        <s v="Staphylococcus aureus (MSSA)"/>
+        <s v="Staphylococcus lugdunensis"/>
+        <s v="Staphylococcus, Coagulase Negative (epidermidis)"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Drug" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="JonC101" refreshedDate="42524.811306134259" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="48">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="O1:P1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Bug" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Bacteroides fragilis"/>
+        <s v="Bacteroides (not fragilis)"/>
+        <s v="Gram Negative Rods (anaerobes, other)"/>
+        <s v="Gram Positive Rods (anaerobes)"/>
+        <s v="Clostridium (not difficile)"/>
+        <s v="Peptostreptococcus"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Drug" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="250">
+  <r>
+    <x v="0"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Minocycline"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Ceftazidime"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Ticarcillin"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Piperacillin"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Ticarcillin"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Piperacillin"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Cefazolin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Cefepime"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Aztreonam"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Imipenem"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Tobramycin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Amikacin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Nitrofurantoin (uncomplicated UTI)"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Ticarcillin-Clavulanate"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Levofloxacin"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Ampicillin/Amoxicillin"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Ceftriaxone"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Ciprofloxacin"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
+  <r>
+    <x v="0"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Nafcillin/Oxacillin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Vancomycin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Erythromycin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Moxifloxacin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Doxycycline"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Linezolid"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Nafcillin/Oxacillin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Vancomycin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Erythromycin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Moxifloxacin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Doxycycline"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Linezolid"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Nafcillin/Oxacillin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Vancomycin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Erythromycin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Moxifloxacin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Doxycycline"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Linezolid"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nafcillin/Oxacillin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Vancomycin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Erythromycin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Moxifloxacin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Linezolid"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Nafcillin/Oxacillin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Cephalexin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Vancomycin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Erythromycin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Gentamicin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="TMP-SMX"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Moxifloxacin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Linezolid"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+  <r>
+    <x v="0"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ampicillin-Sulbactam"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Piperacillin-Tazobactam"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Meropenem"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Number Tested"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Penicillin G"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Clindamycin"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Metronidazole"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R2:R10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L2:L9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F2:F23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,32 +2698,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1044,24 +3296,6525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>218</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+      <c r="O2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>94</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>81</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>701</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="O5">
+        <v>90</v>
+      </c>
+      <c r="P5">
+        <v>67</v>
+      </c>
+      <c r="Q5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="Q6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="Q7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>84</v>
+      </c>
+      <c r="N18">
+        <v>64</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>56</v>
+      </c>
+      <c r="U18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>78</v>
+      </c>
+      <c r="K19">
+        <v>47</v>
+      </c>
+      <c r="N19">
+        <v>71</v>
+      </c>
+      <c r="P19">
+        <v>68</v>
+      </c>
+      <c r="Q19">
+        <v>83</v>
+      </c>
+      <c r="R19">
+        <v>87</v>
+      </c>
+      <c r="S19">
+        <v>53</v>
+      </c>
+      <c r="T19">
+        <v>61</v>
+      </c>
+      <c r="U19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>62</v>
+      </c>
+      <c r="U20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>92</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>74</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>98</v>
+      </c>
+      <c r="P21">
+        <v>95</v>
+      </c>
+      <c r="Q21">
+        <v>97</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>92</v>
+      </c>
+      <c r="T21">
+        <v>92</v>
+      </c>
+      <c r="U21">
+        <v>82</v>
+      </c>
+      <c r="V21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="V22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>88</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>86</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>88</v>
+      </c>
+      <c r="M23">
+        <v>88</v>
+      </c>
+      <c r="N23">
+        <v>97</v>
+      </c>
+      <c r="O23">
+        <v>96</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>98</v>
+      </c>
+      <c r="T23">
+        <v>99</v>
+      </c>
+      <c r="U23">
+        <v>98</v>
+      </c>
+      <c r="V23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>76</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>74</v>
+      </c>
+      <c r="K24">
+        <v>97</v>
+      </c>
+      <c r="L24">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>94</v>
+      </c>
+      <c r="N24">
+        <v>98</v>
+      </c>
+      <c r="O24">
+        <v>90</v>
+      </c>
+      <c r="P24">
+        <v>94</v>
+      </c>
+      <c r="Q24">
+        <v>94</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>95</v>
+      </c>
+      <c r="T24">
+        <v>97</v>
+      </c>
+      <c r="U24">
+        <v>86</v>
+      </c>
+      <c r="V24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>2601</v>
+      </c>
+      <c r="E25">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <v>95</v>
+      </c>
+      <c r="I25">
+        <v>84</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <v>97</v>
+      </c>
+      <c r="L25">
+        <v>84</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>89</v>
+      </c>
+      <c r="Q25">
+        <v>91</v>
+      </c>
+      <c r="R25">
+        <v>100</v>
+      </c>
+      <c r="S25">
+        <v>78</v>
+      </c>
+      <c r="T25">
+        <v>78</v>
+      </c>
+      <c r="U25">
+        <v>71</v>
+      </c>
+      <c r="V25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>99</v>
+      </c>
+      <c r="L26">
+        <v>92</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>99</v>
+      </c>
+      <c r="Q26">
+        <v>98</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
+      </c>
+      <c r="S26">
+        <v>95</v>
+      </c>
+      <c r="T26">
+        <v>96</v>
+      </c>
+      <c r="U26">
+        <v>89</v>
+      </c>
+      <c r="V26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27">
+        <v>478</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>71</v>
+      </c>
+      <c r="H27">
+        <v>92</v>
+      </c>
+      <c r="I27">
+        <v>88</v>
+      </c>
+      <c r="J27">
+        <v>92</v>
+      </c>
+      <c r="K27">
+        <v>95</v>
+      </c>
+      <c r="L27">
+        <v>90</v>
+      </c>
+      <c r="M27">
+        <v>99</v>
+      </c>
+      <c r="N27">
+        <v>99</v>
+      </c>
+      <c r="O27">
+        <v>99</v>
+      </c>
+      <c r="P27">
+        <v>94</v>
+      </c>
+      <c r="Q27">
+        <v>92</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>91</v>
+      </c>
+      <c r="T27">
+        <v>93</v>
+      </c>
+      <c r="U27">
+        <v>86</v>
+      </c>
+      <c r="V27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>98</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>89</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>93</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>85</v>
+      </c>
+      <c r="Q28">
+        <v>98</v>
+      </c>
+      <c r="R28">
+        <v>100</v>
+      </c>
+      <c r="S28">
+        <v>83</v>
+      </c>
+      <c r="T28">
+        <v>85</v>
+      </c>
+      <c r="U28">
+        <v>69</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29">
+        <v>250</v>
+      </c>
+      <c r="E29">
+        <v>77</v>
+      </c>
+      <c r="G29">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>87</v>
+      </c>
+      <c r="J29">
+        <v>95</v>
+      </c>
+      <c r="K29">
+        <v>99</v>
+      </c>
+      <c r="L29">
+        <v>97</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>87</v>
+      </c>
+      <c r="Q29">
+        <v>90</v>
+      </c>
+      <c r="R29">
+        <v>100</v>
+      </c>
+      <c r="S29">
+        <v>92</v>
+      </c>
+      <c r="T29">
+        <v>87</v>
+      </c>
+      <c r="U29">
+        <v>81</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>100</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31">
+        <v>509</v>
+      </c>
+      <c r="H31">
+        <v>93</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>83</v>
+      </c>
+      <c r="M31">
+        <v>83</v>
+      </c>
+      <c r="N31">
+        <v>88</v>
+      </c>
+      <c r="P31">
+        <v>87</v>
+      </c>
+      <c r="Q31">
+        <v>94</v>
+      </c>
+      <c r="R31">
+        <v>93</v>
+      </c>
+      <c r="S31">
+        <v>85</v>
+      </c>
+      <c r="T31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32">
+        <v>155</v>
+      </c>
+      <c r="F32">
+        <v>87</v>
+      </c>
+      <c r="K32">
+        <v>85</v>
+      </c>
+      <c r="L32">
+        <v>81</v>
+      </c>
+      <c r="M32">
+        <v>77</v>
+      </c>
+      <c r="N32">
+        <v>83</v>
+      </c>
+      <c r="Q32">
+        <v>91</v>
+      </c>
+      <c r="R32">
+        <v>69</v>
+      </c>
+      <c r="S32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33">
+        <v>124</v>
+      </c>
+      <c r="F33">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>66</v>
+      </c>
+      <c r="L33">
+        <v>65</v>
+      </c>
+      <c r="M33">
+        <v>65</v>
+      </c>
+      <c r="N33">
+        <v>71</v>
+      </c>
+      <c r="Q33">
+        <v>66</v>
+      </c>
+      <c r="R33">
+        <v>46</v>
+      </c>
+      <c r="S33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>73</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="S34">
+        <v>92</v>
+      </c>
+      <c r="U34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35">
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>97</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>95</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>98</v>
+      </c>
+      <c r="M35">
+        <v>98</v>
+      </c>
+      <c r="N35">
+        <v>98</v>
+      </c>
+      <c r="O35">
+        <v>98</v>
+      </c>
+      <c r="P35">
+        <v>99</v>
+      </c>
+      <c r="Q35">
+        <v>98</v>
+      </c>
+      <c r="R35">
+        <v>98</v>
+      </c>
+      <c r="S35">
+        <v>91</v>
+      </c>
+      <c r="T35">
+        <v>97</v>
+      </c>
+      <c r="U35">
+        <v>98</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36">
+        <v>129</v>
+      </c>
+      <c r="T36">
+        <v>90</v>
+      </c>
+      <c r="U36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>1719</v>
+      </c>
+      <c r="C40">
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>58</v>
+      </c>
+      <c r="G40">
+        <v>74</v>
+      </c>
+      <c r="H40">
+        <v>97</v>
+      </c>
+      <c r="I40">
+        <v>99</v>
+      </c>
+      <c r="J40">
+        <v>72</v>
+      </c>
+      <c r="K40">
+        <v>95</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41">
+        <v>411</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>98</v>
+      </c>
+      <c r="J41">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>95</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42">
+        <v>1308</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>72</v>
+      </c>
+      <c r="G42">
+        <v>81</v>
+      </c>
+      <c r="H42">
+        <v>98</v>
+      </c>
+      <c r="I42">
+        <v>99</v>
+      </c>
+      <c r="J42">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>95</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>81</v>
+      </c>
+      <c r="H43">
+        <v>95</v>
+      </c>
+      <c r="I43">
+        <v>95</v>
+      </c>
+      <c r="J43">
+        <v>98</v>
+      </c>
+      <c r="K43">
+        <v>87</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>280</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>76</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>48</v>
+      </c>
+      <c r="K44">
+        <v>82</v>
+      </c>
+      <c r="L44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>94</v>
+      </c>
+      <c r="E48">
+        <v>90</v>
+      </c>
+      <c r="F48">
+        <v>96</v>
+      </c>
+      <c r="G48">
+        <v>69</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>93</v>
+      </c>
+      <c r="G49">
+        <v>28</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>96</v>
+      </c>
+      <c r="G53">
+        <v>92</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>76</v>
+      </c>
+      <c r="H54">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" t="s">
+        <v>175</v>
+      </c>
+      <c r="P32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" t="s">
+        <v>177</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" t="s">
+        <v>177</v>
+      </c>
+      <c r="P36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B139" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>92</v>
+      </c>
+      <c r="B142" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>93</v>
+      </c>
+      <c r="B143" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>42</v>
+      </c>
+      <c r="B154" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>38</v>
+      </c>
+      <c r="B160" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>38</v>
+      </c>
+      <c r="B168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" t="s">
+        <v>121</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>96</v>
+      </c>
+      <c r="B171" t="s">
+        <v>121</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>38</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" t="s">
+        <v>121</v>
+      </c>
+      <c r="C173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>87</v>
+      </c>
+      <c r="B174" t="s">
+        <v>121</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175" t="s">
+        <v>121</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>38</v>
+      </c>
+      <c r="B176" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>65</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>48</v>
+      </c>
+      <c r="B182" t="s">
+        <v>122</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" t="s">
+        <v>82</v>
+      </c>
+      <c r="D183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>38</v>
+      </c>
+      <c r="B184" t="s">
+        <v>122</v>
+      </c>
+      <c r="C184" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" t="s">
+        <v>122</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>38</v>
+      </c>
+      <c r="B187" t="s">
+        <v>122</v>
+      </c>
+      <c r="C187" t="s">
+        <v>64</v>
+      </c>
+      <c r="D187" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188" t="s">
+        <v>122</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>38</v>
+      </c>
+      <c r="B190" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>38</v>
+      </c>
+      <c r="B191" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>38</v>
+      </c>
+      <c r="B192" t="s">
+        <v>122</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>38</v>
+      </c>
+      <c r="B194" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" t="s">
+        <v>124</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" t="s">
+        <v>124</v>
+      </c>
+      <c r="C197" t="s">
+        <v>125</v>
+      </c>
+      <c r="D197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>90</v>
+      </c>
+      <c r="B198" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198" t="s">
+        <v>126</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>90</v>
+      </c>
+      <c r="B199" t="s">
+        <v>124</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>89</v>
+      </c>
+      <c r="B200" t="s">
+        <v>124</v>
+      </c>
+      <c r="C200" t="s">
+        <v>64</v>
+      </c>
+      <c r="D200" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" t="s">
+        <v>124</v>
+      </c>
+      <c r="C201" t="s">
+        <v>66</v>
+      </c>
+      <c r="D201" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>81</v>
+      </c>
+      <c r="B202" t="s">
+        <v>124</v>
+      </c>
+      <c r="C202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B204" t="s">
+        <v>124</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>128</v>
+      </c>
+      <c r="B205" t="s">
+        <v>129</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" t="s">
+        <v>129</v>
+      </c>
+      <c r="C206" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>36</v>
+      </c>
+      <c r="B207" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>130</v>
+      </c>
+      <c r="B208" t="s">
+        <v>129</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" t="s">
+        <v>129</v>
+      </c>
+      <c r="C209" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" t="s">
+        <v>66</v>
+      </c>
+      <c r="D210" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>89</v>
+      </c>
+      <c r="B211" t="s">
+        <v>129</v>
+      </c>
+      <c r="C211" t="s">
+        <v>33</v>
+      </c>
+      <c r="D211" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212" t="s">
+        <v>129</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>132</v>
+      </c>
+      <c r="B213" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>133</v>
+      </c>
+      <c r="B214" t="s">
+        <v>134</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215" t="s">
+        <v>61</v>
+      </c>
+      <c r="D215" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>65</v>
+      </c>
+      <c r="B216" t="s">
+        <v>134</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>135</v>
+      </c>
+      <c r="B217" t="s">
+        <v>134</v>
+      </c>
+      <c r="C217" t="s">
+        <v>64</v>
+      </c>
+      <c r="D217" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" t="s">
+        <v>134</v>
+      </c>
+      <c r="C218" t="s">
+        <v>66</v>
+      </c>
+      <c r="D218" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>136</v>
+      </c>
+      <c r="B219" t="s">
+        <v>134</v>
+      </c>
+      <c r="C219" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>65</v>
+      </c>
+      <c r="B220" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>88</v>
+      </c>
+      <c r="B221" t="s">
+        <v>134</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>88</v>
+      </c>
+      <c r="B222" t="s">
+        <v>134</v>
+      </c>
+      <c r="C222" t="s">
+        <v>70</v>
+      </c>
+      <c r="D222" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>90</v>
+      </c>
+      <c r="B223" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>42</v>
+      </c>
+      <c r="B225" t="s">
+        <v>137</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" t="s">
+        <v>137</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227" t="s">
+        <v>82</v>
+      </c>
+      <c r="D227" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>38</v>
+      </c>
+      <c r="B228" t="s">
+        <v>137</v>
+      </c>
+      <c r="C228" t="s">
+        <v>61</v>
+      </c>
+      <c r="D228" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229" t="s">
+        <v>137</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>93</v>
+      </c>
+      <c r="B230" t="s">
+        <v>137</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231" t="s">
+        <v>137</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>92</v>
+      </c>
+      <c r="B232" t="s">
+        <v>137</v>
+      </c>
+      <c r="C232" t="s">
+        <v>64</v>
+      </c>
+      <c r="D232" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>96</v>
+      </c>
+      <c r="B233" t="s">
+        <v>137</v>
+      </c>
+      <c r="C233" t="s">
+        <v>66</v>
+      </c>
+      <c r="D233" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>38</v>
+      </c>
+      <c r="B234" t="s">
+        <v>137</v>
+      </c>
+      <c r="C234" t="s">
+        <v>33</v>
+      </c>
+      <c r="D234" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>38</v>
+      </c>
+      <c r="B235" t="s">
+        <v>137</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>39</v>
+      </c>
+      <c r="B236" t="s">
+        <v>137</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" t="s">
+        <v>137</v>
+      </c>
+      <c r="C237" t="s">
+        <v>70</v>
+      </c>
+      <c r="D237" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" t="s">
+        <v>137</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" t="s">
+        <v>137</v>
+      </c>
+      <c r="C239" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>92</v>
+      </c>
+      <c r="B240" t="s">
+        <v>137</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" t="s">
+        <v>137</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>138</v>
+      </c>
+      <c r="B242" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242" t="s">
+        <v>24</v>
+      </c>
+      <c r="D242" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" t="s">
+        <v>139</v>
+      </c>
+      <c r="C243" t="s">
+        <v>140</v>
+      </c>
+      <c r="D243" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>65</v>
+      </c>
+      <c r="B244" t="s">
+        <v>139</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>76</v>
+      </c>
+      <c r="B245" t="s">
+        <v>139</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>98</v>
+      </c>
+      <c r="B246" t="s">
+        <v>141</v>
+      </c>
+      <c r="C246" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>130</v>
+      </c>
+      <c r="B247" t="s">
+        <v>141</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>86</v>
+      </c>
+      <c r="B248" t="s">
+        <v>141</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>142</v>
+      </c>
+      <c r="B249" t="s">
+        <v>141</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>86</v>
+      </c>
+      <c r="B250" t="s">
+        <v>141</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebSite/workschool/tools/Antibiogram/notes.xlsx
+++ b/WebSite/workschool/tools/Antibiogram/notes.xlsx
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
